--- a/Data/privatization_receipts_in_total_ukr_budget_receipts_per_year.xlsx
+++ b/Data/privatization_receipts_in_total_ukr_budget_receipts_per_year.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="% of privatization in total " sheetId="1" r:id="rId1"/>
@@ -18,12 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>budget receipts total</t>
-  </si>
-  <si>
-    <t>budget receipts privatization</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -33,10 +27,16 @@
     <t>% of privatization in the total Ukrainian budget receipts per year</t>
   </si>
   <si>
-    <t>Data source - data for privatization receipts is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.85 http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
-  </si>
-  <si>
     <t>data for total Ukrainian Budget receipts is taken from Ukrainian Finansial Portal http://index.minfin.com.ua/budget/</t>
+  </si>
+  <si>
+    <t>budget receipts total (UAN)</t>
+  </si>
+  <si>
+    <t>budget receipts privatization (UAN)</t>
+  </si>
+  <si>
+    <t>Data source - data for privatization receipts is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.http://www.spfu.gov.ua/userfiles/pdf/zvit-2015_7389.pdf</t>
   </si>
 </sst>
 </file>
@@ -403,24 +403,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
@@ -544,25 +547,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/privatization_receipts_in_total_ukr_budget_receipts_per_year.xlsx
+++ b/Data/privatization_receipts_in_total_ukr_budget_receipts_per_year.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="19940" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="% of privatization in total " sheetId="1" r:id="rId1"/>
     <sheet name="inforamtion" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,26 +43,33 @@
     <t>data for total Ukrainian Budget receipts is taken from Ukrainian Finansial Portal http://index.minfin.com.ua/budget/</t>
   </si>
   <si>
-    <t>budget receipts total (UAN)</t>
+    <t>Data source - data for privatization receipts is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.http://www.spfu.gov.ua/userfiles/pdf/zvit-2015_7389.pdf</t>
   </si>
   <si>
-    <t>budget receipts privatization (UAN)</t>
+    <t>budget receipts privatization (UAH)</t>
   </si>
   <si>
-    <t>Data source - data for privatization receipts is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.http://www.spfu.gov.ua/userfiles/pdf/zvit-2015_7389.pdf</t>
+    <t>budget receipts total (UAH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,29 +117,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,14 +183,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -191,14 +217,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -225,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,33 +428,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2008</v>
       </c>
@@ -440,7 +469,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2009</v>
       </c>
@@ -454,7 +483,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2010</v>
       </c>
@@ -468,7 +497,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2011</v>
       </c>
@@ -482,7 +511,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2012</v>
       </c>
@@ -496,7 +525,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2013</v>
       </c>
@@ -510,7 +539,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2014</v>
       </c>
@@ -524,7 +553,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2015</v>
       </c>
@@ -544,26 +573,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -574,12 +603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/privatization_receipts_in_total_ukr_budget_receipts_per_year.xlsx
+++ b/Data/privatization_receipts_in_total_ukr_budget_receipts_per_year.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="19940" windowHeight="8880"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="24060" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="% of privatization in total " sheetId="1" r:id="rId1"/>
     <sheet name="inforamtion" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Year</t>
   </si>
@@ -40,16 +40,28 @@
     <t>% of privatization in the total Ukrainian budget receipts per year</t>
   </si>
   <si>
-    <t>data for total Ukrainian Budget receipts is taken from Ukrainian Finansial Portal http://index.minfin.com.ua/budget/</t>
-  </si>
-  <si>
-    <t>Data source - data for privatization receipts is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.http://www.spfu.gov.ua/userfiles/pdf/zvit-2015_7389.pdf</t>
-  </si>
-  <si>
-    <t>budget receipts privatization (UAH)</t>
-  </si>
-  <si>
-    <t>budget receipts total (UAH)</t>
+    <t>Data source - data for privatization receipts is taken from official annual summary report of the State Property Fund of Ukraine for 2015 year.  P.85 http://www.spfu.gov.ua/userfiles/pdf/zvit-2015_7389.pdf</t>
+  </si>
+  <si>
+    <t>For 2008-2015 year from Ukrainian Finansial Portal http://index.minfin.com.ua/budget/</t>
+  </si>
+  <si>
+    <t>Data for total Ukrainian Budget receipts is taken from:</t>
+  </si>
+  <si>
+    <t>For 2007 year http://zakon0.rada.gov.ua/laws/show/489-16</t>
+  </si>
+  <si>
+    <t>For 2006 year - http://zakon0.rada.gov.ua/laws/show/3235-15</t>
+  </si>
+  <si>
+    <t>For 2000-2005 year https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%81%D1%83%D0%B4%D0%B0%D1%80%D1%81%D1%82%D0%B2%D0%B5%D0%BD%D0%BD%D1%8B%D0%B9_%D0%B1%D1%8E%D0%B4%D0%B6%D0%B5%D1%82_%D0%A3%D0%BA%D1%80%D0%B0%D0%B8%D0%BD%D1%8B</t>
+  </si>
+  <si>
+    <t>budget receipts from privatization (Million UAH)</t>
+  </si>
+  <si>
+    <t>budget receipts total (Million UAH)</t>
   </si>
 </sst>
 </file>
@@ -97,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -127,6 +145,11 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -429,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -437,135 +460,265 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="6">
+        <v>36229.9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2075.5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5.73</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="6">
+        <v>39726.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2132</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5.37</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45467.6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>576.1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="6">
+        <v>55076.9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2015.7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3.66</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="6">
+        <v>70337.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9414.9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13.39</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="6">
+        <v>105191.9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>20699.2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>19.68</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="6">
+        <v>127516</v>
+      </c>
+      <c r="C8" s="5">
+        <v>522.9</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" ref="D8:D9" si="0">C8/B8*100</f>
+        <v>0.4100661877725148</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="6">
+        <v>157287</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2458.3000000000002</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.562939085874866</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>2008</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B10" s="3">
         <v>231686.3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C10" s="1">
         <v>480.7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D10" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>2009</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B11" s="3">
         <v>209700.3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C11" s="1">
         <v>803.6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D11" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>2010</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B12" s="3">
         <v>240615.2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C12" s="1">
         <v>1097.0999999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D12" s="1">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>2011</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B13" s="3">
         <v>314616.90000000002</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C13" s="1">
         <v>11480.4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D13" s="1">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>2012</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B14" s="3">
         <v>346054</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C14" s="1">
         <v>6763.3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D14" s="1">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>2013</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B15" s="3">
         <v>339180.3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C15" s="1">
         <v>1541.1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D15" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>2014</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B16" s="3">
         <v>357084.2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C16" s="1">
         <v>405.6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D16" s="1">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>2015</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B17" s="3">
         <v>534694.80000000005</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C17" s="1">
         <v>151.5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D17" s="1">
         <v>0.03</v>
       </c>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -574,7 +727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -589,12 +742,32 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
